--- a/Dokumente/Zeiterfassung2015.xlsx
+++ b/Dokumente/Zeiterfassung2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\pcs\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <sheet name="Dezember" sheetId="11" r:id="rId13"/>
     <sheet name="Berechnungen" sheetId="17" r:id="rId14"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Dienstbeginn">Berechnungen!$A$2:$A$5</definedName>
     <definedName name="Dienstende">Berechnungen!$C$2:$C$10</definedName>
@@ -285,7 +282,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -336,7 +333,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,49 +558,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -613,26 +586,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -648,123 +652,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Zusammenfassung"/>
-      <sheetName val="Januar"/>
-      <sheetName val="Februar"/>
-      <sheetName val="März"/>
-      <sheetName val="April"/>
-      <sheetName val="Mai"/>
-      <sheetName val="Juni"/>
-      <sheetName val="Juli"/>
-      <sheetName val="August"/>
-      <sheetName val="September"/>
-      <sheetName val="Oktober"/>
-      <sheetName val="November"/>
-      <sheetName val="Dezember"/>
-      <sheetName val="Berechnungen"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="26">
-          <cell r="E26">
-            <v>-200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="13">
-          <cell r="A13">
-            <v>1500</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,15 +931,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1073,24 +960,24 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="1"/>
@@ -1102,10 +989,10 @@
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="3">
         <v>1525.15</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="3">
         <f>IF(B6&gt;Berechnungen!E7,Berechnungen!F7,IF(B6&gt;Berechnungen!E6,Berechnungen!F6,IF(B6&gt;Berechnungen!E5,Berechnungen!F5,IF(B6&gt;Berechnungen!E4,Berechnungen!F4,IF(B6&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>80</v>
       </c>
@@ -1118,8 +1005,8 @@
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <f>IF(B7&gt;Berechnungen!E7,Berechnungen!F7,IF(B7&gt;Berechnungen!E6,Berechnungen!F6,IF(B7&gt;Berechnungen!E5,Berechnungen!F5,IF(B7&gt;Berechnungen!E4,Berechnungen!F4,IF(B7&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1132,8 +1019,8 @@
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <f>IF(B8&gt;Berechnungen!E7,Berechnungen!F7,IF(B8&gt;Berechnungen!E6,Berechnungen!F6,IF(B8&gt;Berechnungen!E5,Berechnungen!F5,IF(B8&gt;Berechnungen!E4,Berechnungen!F4,IF(B8&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1146,8 +1033,8 @@
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <f>IF(B9&gt;Berechnungen!E7,Berechnungen!F7,IF(B9&gt;Berechnungen!E6,Berechnungen!F6,IF(B9&gt;Berechnungen!E5,Berechnungen!F5,IF(B9&gt;Berechnungen!E4,Berechnungen!F4,IF(B9&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1160,8 +1047,8 @@
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <f>IF(B10&gt;Berechnungen!E7,Berechnungen!F7,IF(B10&gt;Berechnungen!E6,Berechnungen!F6,IF(B10&gt;Berechnungen!E5,Berechnungen!F5,IF(B10&gt;Berechnungen!E4,Berechnungen!F4,IF(B10&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1174,8 +1061,8 @@
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <f>IF(B11&gt;Berechnungen!E7,Berechnungen!F7,IF(B11&gt;Berechnungen!E6,Berechnungen!F6,IF(B11&gt;Berechnungen!E5,Berechnungen!F5,IF(B11&gt;Berechnungen!E4,Berechnungen!F4,IF(B11&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1188,8 +1075,8 @@
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <f>IF(B12&gt;Berechnungen!E7,Berechnungen!F7,IF(B12&gt;Berechnungen!E6,Berechnungen!F6,IF(B12&gt;Berechnungen!E5,Berechnungen!F5,IF(B12&gt;Berechnungen!E4,Berechnungen!F4,IF(B12&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1202,8 +1089,8 @@
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <f>IF(B13&gt;Berechnungen!E7,Berechnungen!F7,IF(B13&gt;Berechnungen!E6,Berechnungen!F6,IF(B13&gt;Berechnungen!E5,Berechnungen!F5,IF(B13&gt;Berechnungen!E4,Berechnungen!F4,IF(B13&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1216,8 +1103,8 @@
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <f>IF(B14&gt;Berechnungen!E7,Berechnungen!F7,IF(B14&gt;Berechnungen!E6,Berechnungen!F6,IF(B14&gt;Berechnungen!E5,Berechnungen!F5,IF(B14&gt;Berechnungen!E4,Berechnungen!F4,IF(B14&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1230,8 +1117,8 @@
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <f>IF(B15&gt;Berechnungen!E7,Berechnungen!F7,IF(B15&gt;Berechnungen!E6,Berechnungen!F6,IF(B15&gt;Berechnungen!E5,Berechnungen!F5,IF(B15&gt;Berechnungen!E4,Berechnungen!F4,IF(B15&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1244,8 +1131,8 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
         <f>IF(B16&gt;Berechnungen!E7,Berechnungen!F7,IF(B16&gt;Berechnungen!E6,Berechnungen!F6,IF(B16&gt;Berechnungen!E5,Berechnungen!F5,IF(B16&gt;Berechnungen!E4,Berechnungen!F4,IF(B16&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1258,8 +1145,8 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
         <f>IF(B17&gt;Berechnungen!E7,Berechnungen!F7,IF(B17&gt;Berechnungen!E6,Berechnungen!F6,IF(B17&gt;Berechnungen!E5,Berechnungen!F5,IF(B17&gt;Berechnungen!E4,Berechnungen!F4,IF(B17&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
       </c>
@@ -1278,33 +1165,33 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="26" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="1"/>
@@ -1313,193 +1200,193 @@
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="3">
         <v>1650</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="3">
         <f t="shared" ref="C21:C32" si="0">C6</f>
         <v>80</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="30">
         <f>SUM(B21:B32)</f>
         <v>1650</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="30">
         <f>SUM(C21:C32)</f>
         <v>80</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="30">
         <f>SUM(D21:D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="30">
         <f>SUM(E21:E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="31">
         <f>SUM(F21:F32)</f>
         <v>0</v>
       </c>
@@ -1507,13 +1394,13 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="44">
-        <f>[1]Januar!E26+[1]Februar!E26+[1]März!E26+[1]April!E26+[1]Mai!E26+[1]Juni!E26+[1]Juli!E26+[1]August!E26+[1]September!E26+[1]Oktober!E26+[1]November!E26+[1]Dezember!E26</f>
-        <v>-2400</v>
+      <c r="B36" s="36"/>
+      <c r="C36" s="32">
+        <f>(IF(Januar!E26&gt;0,Januar!E26,0))+(IF(Februar!E26&gt;0,Februar!E26,0))+(IF(März!E26&gt;0,März!E26,0))+(IF(April!E26&gt;0,April!E26,0))+(IF(Mai!E26&gt;0,Mai!E26,0))+(IF(Juni!E26&gt;0,Juni!E26,0))+(IF(Juli!E26&gt;0,Juli!E26,0))+(IF(August!E26&gt;0,August!E26,0))+(IF(September!E26&gt;0,September!E26,0))+(IF(Oktober!E26&gt;0,Oktober!E26,0))+(IF(November!E26&gt;0,November!E26,0))+(IF(Dezember!E26&gt;0,Dezember!E26,0))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1545,375 +1432,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1923,35 +1810,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -1965,13 +1852,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -2015,375 +1902,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -2393,35 +2280,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -2435,13 +2322,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -2485,375 +2372,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -2863,35 +2750,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -2905,13 +2792,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -2955,375 +2842,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -3333,35 +3220,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -3375,13 +3262,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -3430,10 +3317,10 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="13">
         <v>0.60416666666666663</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3445,88 +3332,88 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="13">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="3">
         <v>1500</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="3">
         <v>80</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="13">
         <v>0.375</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="13">
         <v>0.75</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="3">
         <v>2000</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="3">
         <v>110</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="13">
         <v>0.8125</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <v>2500</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="3">
         <v>140</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="C6" s="23">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>3000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="3">
         <v>190</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="C7" s="23">
+      <c r="A7" s="13"/>
+      <c r="C7" s="13">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>3500</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>250</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="23">
+      <c r="C8" s="13">
         <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="23">
+      <c r="C9" s="13">
         <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="23">
+      <c r="C10" s="13">
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -3541,56 +3428,56 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="23"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="23"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="23"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="23"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="23"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="23"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="23"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="23"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="23"/>
+      <c r="C29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3601,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,427 +3503,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="18">
         <v>0.375</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="18">
         <v>0.375</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
         <v>0.35416666666666663</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="18">
         <v>0.375</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="18">
         <v>0.375</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="18">
         <v>0.375</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="18">
         <v>0.375</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="18">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="18">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
         <v>0.49999999999999994</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="18">
         <v>0.375</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="18">
         <v>0.375</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="18">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="18">
         <v>0.375</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="18">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
         <v>0.47916666666666663</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="18">
         <v>0.375</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="18">
         <v>0.8125</v>
       </c>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="19">
         <v>0.375</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="19">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -4046,35 +3937,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>5.9375</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+        <v>6.395833333333333</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
-        <v>142.5</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+        <v>153.5</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -4088,15 +3979,15 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
-        <v>-57.5</v>
+        <v>-46.5</v>
       </c>
     </row>
   </sheetData>
@@ -4139,375 +4030,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -4517,35 +4408,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -4559,13 +4450,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -4609,375 +4500,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -4987,35 +4878,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -5029,13 +4920,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -5079,375 +4970,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -5457,35 +5348,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -5499,13 +5390,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -5549,375 +5440,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -5927,35 +5818,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -5969,13 +5860,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -6019,375 +5910,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -6397,35 +6288,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -6439,13 +6330,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -6489,375 +6380,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -6867,35 +6758,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -6909,13 +6800,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>
@@ -6959,375 +6850,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="16">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I18" si="0">H4-G4</f>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I18" si="1">H4-G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16">
-        <f>C6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
-        <f>C7-B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
-        <f>C8-B8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="16">
-        <f>C9-B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="16">
-        <f>C10-B10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="16">
-        <f>C11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="16">
-        <f>C12-B12</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="16">
-        <f>C13-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="16">
-        <f>C14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="16">
-        <f>C15-B15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="25" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="16">
-        <f>C16-B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="25" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="16">
-        <f>C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16">
-        <f>C18-B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17">
-        <f>C19-B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -7337,35 +7228,35 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>200</v>
@@ -7379,13 +7270,13 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
         <f>C22-E24</f>
         <v>-200</v>
       </c>

--- a/Dokumente/Zeiterfassung2015.xlsx
+++ b/Dokumente/Zeiterfassung2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="79">
   <si>
     <t>Januar 2015</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Ausgezahlt</t>
+  </si>
+  <si>
+    <t>Anzahl FZ</t>
   </si>
 </sst>
 </file>
@@ -333,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -602,6 +611,11 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,8 +649,10 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -919,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -931,15 +947,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -960,10 +976,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="25"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1165,10 +1181,10 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -1394,13 +1410,13 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="32">
         <f>(IF(Januar!E26&gt;0,Januar!E26,0))+(IF(Februar!E26&gt;0,Februar!E26,0))+(IF(März!E26&gt;0,März!E26,0))+(IF(April!E26&gt;0,April!E26,0))+(IF(Mai!E26&gt;0,Mai!E26,0))+(IF(Juni!E26&gt;0,Juni!E26,0))+(IF(Juli!E26&gt;0,Juli!E26,0))+(IF(August!E26&gt;0,August!E26,0))+(IF(September!E26&gt;0,September!E26,0))+(IF(Oktober!E26&gt;0,Oktober!E26,0))+(IF(November!E26&gt;0,November!E26,0))+(IF(Dezember!E26&gt;0,Dezember!E26,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1432,17 +1448,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1810,27 +1826,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1902,17 +1918,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2280,27 +2296,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2372,17 +2388,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2750,27 +2766,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2842,17 +2858,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3220,27 +3236,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,10 +3502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,17 +3519,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3631,11 +3647,15 @@
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3656,11 +3676,15 @@
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3681,11 +3705,15 @@
       <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3706,11 +3734,15 @@
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3731,11 +3763,15 @@
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3937,28 +3973,28 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>6.395833333333333</v>
-      </c>
-      <c r="D21" s="41"/>
+        <v>8.5833333333333339</v>
+      </c>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
-        <v>153.5</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
@@ -3987,11 +4023,21 @@
       <c r="D26" s="22"/>
       <c r="E26" s="23">
         <f>C22-E24</f>
-        <v>-46.5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -4030,17 +4076,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -4408,27 +4454,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4500,17 +4546,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -4878,27 +4924,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4970,17 +5016,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -5348,27 +5394,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5440,17 +5486,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -5818,27 +5864,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5910,17 +5956,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -6288,27 +6334,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6380,17 +6426,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -6758,27 +6804,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6850,17 +6896,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -7228,27 +7274,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung2015.xlsx
+++ b/Dokumente/Zeiterfassung2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="79">
   <si>
     <t>Januar 2015</t>
   </si>
@@ -616,6 +616,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,6 +628,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,10 +653,6 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,15 +947,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1021,10 +1021,12 @@
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>2232.04</v>
+      </c>
       <c r="C7" s="3">
         <f>IF(B7&gt;Berechnungen!E7,Berechnungen!F7,IF(B7&gt;Berechnungen!E6,Berechnungen!F6,IF(B7&gt;Berechnungen!E5,Berechnungen!F5,IF(B7&gt;Berechnungen!E4,Berechnungen!F4,IF(B7&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1235,7 +1237,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1392,7 +1394,7 @@
       </c>
       <c r="C33" s="30">
         <f>SUM(C21:C32)</f>
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="D33" s="30">
         <f>SUM(D21:D32)</f>
@@ -1410,13 +1412,13 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="32">
         <f>(IF(Januar!E26&gt;0,Januar!E26,0))+(IF(Februar!E26&gt;0,Februar!E26,0))+(IF(März!E26&gt;0,März!E26,0))+(IF(April!E26&gt;0,April!E26,0))+(IF(Mai!E26&gt;0,Mai!E26,0))+(IF(Juni!E26&gt;0,Juni!E26,0))+(IF(Juli!E26&gt;0,Juli!E26,0))+(IF(August!E26&gt;0,August!E26,0))+(IF(September!E26&gt;0,September!E26,0))+(IF(Oktober!E26&gt;0,Oktober!E26,0))+(IF(November!E26&gt;0,November!E26,0))+(IF(Dezember!E26&gt;0,Dezember!E26,0))</f>
-        <v>6</v>
+        <v>56.5</v>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,17 +1450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1826,27 +1828,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1879,8 +1881,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -1901,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,17 +1930,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2296,27 +2308,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2349,8 +2361,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -2371,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,17 +2410,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2766,27 +2788,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2819,8 +2841,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -2841,10 +2873,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,17 +2890,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3236,27 +3268,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3289,8 +3321,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -3504,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3519,17 +3561,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3817,11 +3859,15 @@
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3838,11 +3884,15 @@
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,11 +3913,15 @@
       <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.75</v>
+      </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3888,11 +3942,15 @@
       <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3938,11 +3996,15 @@
       <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3973,27 +4035,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>8.5833333333333339</v>
-      </c>
-      <c r="D21" s="44"/>
+        <v>10.6875</v>
+      </c>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
-        <v>206</v>
-      </c>
-      <c r="D22" s="46"/>
+        <v>256.5</v>
+      </c>
+      <c r="D22" s="48"/>
       <c r="E22" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,15 +4085,15 @@
       <c r="D26" s="22"/>
       <c r="E26" s="23">
         <f>C22-E24</f>
-        <v>6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48">
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
         <v>12</v>
       </c>
     </row>
@@ -4059,10 +4121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,17 +4138,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -4454,27 +4516,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4507,8 +4569,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -4529,10 +4601,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4546,17 +4618,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -4924,27 +4996,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4977,8 +5049,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -4999,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5016,17 +5098,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -5394,27 +5476,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5447,8 +5529,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -5469,10 +5561,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,17 +5578,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -5864,27 +5956,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5917,8 +6009,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -5939,10 +6041,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,17 +6058,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -6334,27 +6436,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6387,8 +6489,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -6409,10 +6521,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6426,17 +6538,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -6804,27 +6916,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6857,8 +6969,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
@@ -6879,10 +7001,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6896,17 +7018,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -7274,27 +7396,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -7327,8 +7449,18 @@
         <v>-200</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>

--- a/Dokumente/Zeiterfassung2015.xlsx
+++ b/Dokumente/Zeiterfassung2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="82">
   <si>
     <t>Januar 2015</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>Anzahl FZ</t>
+  </si>
+  <si>
+    <t>Überstunden Monat April :</t>
+  </si>
+  <si>
+    <t>Überstunden Monat März :</t>
+  </si>
+  <si>
+    <t>Überstunden Monat Februar :</t>
   </si>
 </sst>
 </file>
@@ -336,7 +345,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -653,11 +668,24 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -935,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,10 +1065,12 @@
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>1891.3</v>
+      </c>
       <c r="C8" s="3">
         <f>IF(B8&gt;Berechnungen!E7,Berechnungen!F7,IF(B8&gt;Berechnungen!E6,Berechnungen!F6,IF(B8&gt;Berechnungen!E5,Berechnungen!F5,IF(B8&gt;Berechnungen!E4,Berechnungen!F4,IF(B8&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1051,7 +1081,9 @@
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
       <c r="C9" s="3">
         <f>IF(B9&gt;Berechnungen!E7,Berechnungen!F7,IF(B9&gt;Berechnungen!E6,Berechnungen!F6,IF(B9&gt;Berechnungen!E5,Berechnungen!F5,IF(B9&gt;Berechnungen!E4,Berechnungen!F4,IF(B9&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1065,7 +1097,9 @@
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
       <c r="C10" s="3">
         <f>IF(B10&gt;Berechnungen!E7,Berechnungen!F7,IF(B10&gt;Berechnungen!E6,Berechnungen!F6,IF(B10&gt;Berechnungen!E5,Berechnungen!F5,IF(B10&gt;Berechnungen!E4,Berechnungen!F4,IF(B10&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1079,7 +1113,9 @@
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
       <c r="C11" s="3">
         <f>IF(B11&gt;Berechnungen!E7,Berechnungen!F7,IF(B11&gt;Berechnungen!E6,Berechnungen!F6,IF(B11&gt;Berechnungen!E5,Berechnungen!F5,IF(B11&gt;Berechnungen!E4,Berechnungen!F4,IF(B11&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1093,7 +1129,9 @@
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
       <c r="C12" s="3">
         <f>IF(B12&gt;Berechnungen!E7,Berechnungen!F7,IF(B12&gt;Berechnungen!E6,Berechnungen!F6,IF(B12&gt;Berechnungen!E5,Berechnungen!F5,IF(B12&gt;Berechnungen!E4,Berechnungen!F4,IF(B12&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1107,7 +1145,9 @@
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
       <c r="C13" s="3">
         <f>IF(B13&gt;Berechnungen!E7,Berechnungen!F7,IF(B13&gt;Berechnungen!E6,Berechnungen!F6,IF(B13&gt;Berechnungen!E5,Berechnungen!F5,IF(B13&gt;Berechnungen!E4,Berechnungen!F4,IF(B13&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1121,7 +1161,9 @@
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
       <c r="C14" s="3">
         <f>IF(B14&gt;Berechnungen!E7,Berechnungen!F7,IF(B14&gt;Berechnungen!E6,Berechnungen!F6,IF(B14&gt;Berechnungen!E5,Berechnungen!F5,IF(B14&gt;Berechnungen!E4,Berechnungen!F4,IF(B14&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1135,7 +1177,9 @@
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
       <c r="C15" s="3">
         <f>IF(B15&gt;Berechnungen!E7,Berechnungen!F7,IF(B15&gt;Berechnungen!E6,Berechnungen!F6,IF(B15&gt;Berechnungen!E5,Berechnungen!F5,IF(B15&gt;Berechnungen!E4,Berechnungen!F4,IF(B15&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1149,7 +1193,9 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
       <c r="C16" s="3">
         <f>IF(B16&gt;Berechnungen!E7,Berechnungen!F7,IF(B16&gt;Berechnungen!E6,Berechnungen!F6,IF(B16&gt;Berechnungen!E5,Berechnungen!F5,IF(B16&gt;Berechnungen!E4,Berechnungen!F4,IF(B16&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1163,7 +1209,9 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
       <c r="C17" s="3">
         <f>IF(B17&gt;Berechnungen!E7,Berechnungen!F7,IF(B17&gt;Berechnungen!E6,Berechnungen!F6,IF(B17&gt;Berechnungen!E5,Berechnungen!F5,IF(B17&gt;Berechnungen!E4,Berechnungen!F4,IF(B17&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1234,7 +1282,9 @@
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <v>1650</v>
+      </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -1248,10 +1298,12 @@
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>1850</v>
+      </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1262,7 +1314,9 @@
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <v>1850</v>
+      </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1390,11 +1444,11 @@
       </c>
       <c r="B33" s="30">
         <f>SUM(B21:B32)</f>
-        <v>1650</v>
+        <v>7000</v>
       </c>
       <c r="C33" s="30">
         <f>SUM(C21:C32)</f>
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="D33" s="30">
         <f>SUM(D21:D32)</f>
@@ -1418,7 +1472,7 @@
       <c r="B36" s="40"/>
       <c r="C36" s="32">
         <f>(IF(Januar!E26&gt;0,Januar!E26,0))+(IF(Februar!E26&gt;0,Februar!E26,0))+(IF(März!E26&gt;0,März!E26,0))+(IF(April!E26&gt;0,April!E26,0))+(IF(Mai!E26&gt;0,Mai!E26,0))+(IF(Juni!E26&gt;0,Juni!E26,0))+(IF(Juli!E26&gt;0,Juli!E26,0))+(IF(August!E26&gt;0,August!E26,0))+(IF(September!E26&gt;0,September!E26,0))+(IF(Oktober!E26&gt;0,Oktober!E26,0))+(IF(November!E26&gt;0,November!E26,0))+(IF(Dezember!E26&gt;0,Dezember!E26,0))</f>
-        <v>56.5</v>
+        <v>96.000000000000028</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1490,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,8 +1931,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1916,7 +1970,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,8 +2411,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2396,7 +2450,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,8 +2891,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2876,7 +2930,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,8 +3371,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3547,7 +3601,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,7 +4138,7 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
         <v>56.5</v>
       </c>
     </row>
@@ -4124,7 +4178,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4191,11 +4245,15 @@
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4212,11 +4270,15 @@
       <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4233,11 +4295,15 @@
       <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4254,11 +4320,15 @@
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4275,11 +4345,15 @@
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4317,11 +4391,15 @@
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4338,85 +4416,117 @@
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
@@ -4433,11 +4543,15 @@
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
@@ -4496,11 +4610,15 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.75</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -4522,7 +4640,7 @@
       <c r="B21" s="45"/>
       <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
+        <v>6.9375</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="4"/>
@@ -4534,7 +4652,7 @@
       <c r="B22" s="47"/>
       <c r="C22" s="48">
         <f>C21*24</f>
-        <v>0</v>
+        <v>166.5</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="5"/>
@@ -4559,14 +4677,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4575,7 +4693,7 @@
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="36">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4587,6 +4705,11 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
   </mergeCells>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C19 H4:H18">
       <formula1>Dienstende</formula1>
@@ -4604,7 +4727,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4671,64 +4794,88 @@
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="15" t="s">
@@ -4745,21 +4892,29 @@
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4787,21 +4942,29 @@
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4818,85 +4981,117 @@
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
@@ -4913,11 +5108,15 @@
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
@@ -4944,11 +5143,15 @@
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4976,11 +5179,15 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -5002,7 +5209,7 @@
       <c r="B21" s="45"/>
       <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
+        <v>9.4166666666666679</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="4"/>
@@ -5014,7 +5221,7 @@
       <c r="B22" s="47"/>
       <c r="C22" s="48">
         <f>C21*24</f>
-        <v>0</v>
+        <v>226.00000000000003</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="5"/>
@@ -5039,14 +5246,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>26.000000000000028</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5055,7 +5262,7 @@
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="36">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5083,8 +5290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5141,42 +5348,58 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D19" si="0">C4-B4</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5204,21 +5427,29 @@
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5235,11 +5466,15 @@
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5256,85 +5491,117 @@
       <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G12" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="H12" s="49">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I12" s="50">
+        <f t="shared" si="1"/>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
@@ -5361,11 +5628,15 @@
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5382,30 +5653,38 @@
       <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="6">
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5414,19 +5693,23 @@
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="6">
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5456,11 +5739,15 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -5482,7 +5769,7 @@
       <c r="B21" s="45"/>
       <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
+        <v>8.8958333333333339</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="4"/>
@@ -5494,7 +5781,7 @@
       <c r="B22" s="47"/>
       <c r="C22" s="48">
         <f>C21*24</f>
-        <v>0</v>
+        <v>213.5</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="5"/>
@@ -5519,14 +5806,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5535,7 +5822,7 @@
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="36">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5564,7 +5851,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,8 +6292,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6044,7 +6331,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6485,8 +6772,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6524,7 +6811,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6965,8 +7252,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -7004,7 +7291,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7445,8 +7732,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>C22-E24</f>
-        <v>-200</v>
+        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung2015.xlsx
+++ b/Dokumente/Zeiterfassung2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="79">
   <si>
     <t>Januar 2015</t>
   </si>
@@ -278,15 +278,6 @@
   </si>
   <si>
     <t>Anzahl FZ</t>
-  </si>
-  <si>
-    <t>Überstunden Monat April :</t>
-  </si>
-  <si>
-    <t>Überstunden Monat März :</t>
-  </si>
-  <si>
-    <t>Überstunden Monat Februar :</t>
   </si>
 </sst>
 </file>
@@ -345,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +376,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -668,24 +653,11 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -963,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,12 +1037,10 @@
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3">
-        <v>1891.3</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3">
         <f>IF(B8&gt;Berechnungen!E7,Berechnungen!F7,IF(B8&gt;Berechnungen!E6,Berechnungen!F6,IF(B8&gt;Berechnungen!E5,Berechnungen!F5,IF(B8&gt;Berechnungen!E4,Berechnungen!F4,IF(B8&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1081,9 +1051,7 @@
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3">
         <f>IF(B9&gt;Berechnungen!E7,Berechnungen!F7,IF(B9&gt;Berechnungen!E6,Berechnungen!F6,IF(B9&gt;Berechnungen!E5,Berechnungen!F5,IF(B9&gt;Berechnungen!E4,Berechnungen!F4,IF(B9&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1097,9 +1065,7 @@
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3">
         <f>IF(B10&gt;Berechnungen!E7,Berechnungen!F7,IF(B10&gt;Berechnungen!E6,Berechnungen!F6,IF(B10&gt;Berechnungen!E5,Berechnungen!F5,IF(B10&gt;Berechnungen!E4,Berechnungen!F4,IF(B10&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1113,9 +1079,7 @@
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3">
         <f>IF(B11&gt;Berechnungen!E7,Berechnungen!F7,IF(B11&gt;Berechnungen!E6,Berechnungen!F6,IF(B11&gt;Berechnungen!E5,Berechnungen!F5,IF(B11&gt;Berechnungen!E4,Berechnungen!F4,IF(B11&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1129,9 +1093,7 @@
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3">
         <f>IF(B12&gt;Berechnungen!E7,Berechnungen!F7,IF(B12&gt;Berechnungen!E6,Berechnungen!F6,IF(B12&gt;Berechnungen!E5,Berechnungen!F5,IF(B12&gt;Berechnungen!E4,Berechnungen!F4,IF(B12&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1145,9 +1107,7 @@
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3">
         <f>IF(B13&gt;Berechnungen!E7,Berechnungen!F7,IF(B13&gt;Berechnungen!E6,Berechnungen!F6,IF(B13&gt;Berechnungen!E5,Berechnungen!F5,IF(B13&gt;Berechnungen!E4,Berechnungen!F4,IF(B13&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1161,9 +1121,7 @@
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3">
         <f>IF(B14&gt;Berechnungen!E7,Berechnungen!F7,IF(B14&gt;Berechnungen!E6,Berechnungen!F6,IF(B14&gt;Berechnungen!E5,Berechnungen!F5,IF(B14&gt;Berechnungen!E4,Berechnungen!F4,IF(B14&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1177,9 +1135,7 @@
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3">
         <f>IF(B15&gt;Berechnungen!E7,Berechnungen!F7,IF(B15&gt;Berechnungen!E6,Berechnungen!F6,IF(B15&gt;Berechnungen!E5,Berechnungen!F5,IF(B15&gt;Berechnungen!E4,Berechnungen!F4,IF(B15&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1193,9 +1149,7 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3">
         <f>IF(B16&gt;Berechnungen!E7,Berechnungen!F7,IF(B16&gt;Berechnungen!E6,Berechnungen!F6,IF(B16&gt;Berechnungen!E5,Berechnungen!F5,IF(B16&gt;Berechnungen!E4,Berechnungen!F4,IF(B16&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1209,9 +1163,7 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3">
         <f>IF(B17&gt;Berechnungen!E7,Berechnungen!F7,IF(B17&gt;Berechnungen!E6,Berechnungen!F6,IF(B17&gt;Berechnungen!E5,Berechnungen!F5,IF(B17&gt;Berechnungen!E4,Berechnungen!F4,IF(B17&gt;Berechnungen!E3,Berechnungen!F3,0)))))</f>
         <v>0</v>
@@ -1282,9 +1234,7 @@
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="3">
-        <v>1650</v>
-      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -1298,12 +1248,10 @@
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="3">
-        <v>1850</v>
-      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1314,9 +1262,7 @@
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="3">
-        <v>1850</v>
-      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1444,11 +1390,11 @@
       </c>
       <c r="B33" s="30">
         <f>SUM(B21:B32)</f>
-        <v>7000</v>
+        <v>1650</v>
       </c>
       <c r="C33" s="30">
         <f>SUM(C21:C32)</f>
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="D33" s="30">
         <f>SUM(D21:D32)</f>
@@ -1472,7 +1418,7 @@
       <c r="B36" s="40"/>
       <c r="C36" s="32">
         <f>(IF(Januar!E26&gt;0,Januar!E26,0))+(IF(Februar!E26&gt;0,Februar!E26,0))+(IF(März!E26&gt;0,März!E26,0))+(IF(April!E26&gt;0,April!E26,0))+(IF(Mai!E26&gt;0,Mai!E26,0))+(IF(Juni!E26&gt;0,Juni!E26,0))+(IF(Juli!E26&gt;0,Juli!E26,0))+(IF(August!E26&gt;0,August!E26,0))+(IF(September!E26&gt;0,September!E26,0))+(IF(Oktober!E26&gt;0,Oktober!E26,0))+(IF(November!E26&gt;0,November!E26,0))+(IF(Dezember!E26&gt;0,Dezember!E26,0))</f>
-        <v>96.000000000000028</v>
+        <v>56.5</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1436,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,8 +1877,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1970,7 +1916,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,8 +2357,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2450,7 +2396,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,8 +2837,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2930,7 +2876,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,8 +3317,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3601,7 +3547,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4138,7 +4084,7 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
+        <f>C22-E24</f>
         <v>56.5</v>
       </c>
     </row>
@@ -4178,7 +4124,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4245,15 +4191,11 @@
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4270,15 +4212,11 @@
       <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4295,15 +4233,11 @@
       <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4320,15 +4254,11 @@
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4345,15 +4275,11 @@
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4391,15 +4317,11 @@
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4416,117 +4338,85 @@
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
@@ -4543,15 +4433,11 @@
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
@@ -4610,15 +4496,11 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.75</v>
-      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -4640,7 +4522,7 @@
       <c r="B21" s="45"/>
       <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>6.9375</v>
+        <v>0</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="4"/>
@@ -4652,7 +4534,7 @@
       <c r="B22" s="47"/>
       <c r="C22" s="48">
         <f>C21*24</f>
-        <v>166.5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="5"/>
@@ -4677,14 +4559,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4693,7 +4575,7 @@
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="36">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4705,11 +4587,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
   </mergeCells>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C19 H4:H18">
       <formula1>Dienstende</formula1>
@@ -4727,7 +4604,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,88 +4671,64 @@
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="15" t="s">
@@ -4892,29 +4745,21 @@
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4942,29 +4787,21 @@
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,117 +4818,85 @@
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
@@ -5108,15 +4913,11 @@
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
@@ -5143,15 +4944,11 @@
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5179,15 +4976,11 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -5209,7 +5002,7 @@
       <c r="B21" s="45"/>
       <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>9.4166666666666679</v>
+        <v>0</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="4"/>
@@ -5221,7 +5014,7 @@
       <c r="B22" s="47"/>
       <c r="C22" s="48">
         <f>C21*24</f>
-        <v>226.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="5"/>
@@ -5246,14 +5039,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>26.000000000000028</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5262,7 +5055,7 @@
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="36">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5290,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5348,58 +5141,42 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D19" si="0">C4-B4</f>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5427,29 +5204,21 @@
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5466,15 +5235,11 @@
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5491,117 +5256,85 @@
       <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="H12" s="49">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I12" s="50">
-        <f t="shared" si="1"/>
-        <v>0.35416666666666663</v>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
@@ -5628,15 +5361,11 @@
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5653,38 +5382,30 @@
       <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5693,23 +5414,19 @@
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5739,15 +5456,11 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -5769,7 +5482,7 @@
       <c r="B21" s="45"/>
       <c r="C21" s="46">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>8.8958333333333339</v>
+        <v>0</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="4"/>
@@ -5781,7 +5494,7 @@
       <c r="B22" s="47"/>
       <c r="C22" s="48">
         <f>C21*24</f>
-        <v>213.5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="5"/>
@@ -5806,14 +5519,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>13.5</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5822,7 +5535,7 @@
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="36">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5564,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,8 +6005,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6331,7 +6044,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6772,8 +6485,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6811,7 +6524,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,8 +6965,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -7291,7 +7004,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7732,8 +7445,8 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <f>C22-E24</f>
+        <v>-200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung2015.xlsx
+++ b/Dokumente/Zeiterfassung2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="83">
   <si>
     <t>Januar 2015</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Überstunden Monat Februar :</t>
+  </si>
+  <si>
+    <t>Überstunden Monat Mai :</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -632,6 +635,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,8 +674,6 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -964,7 +968,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,15 +979,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1273,7 +1277,7 @@
         <f t="shared" ref="C21:C32" si="0">C6</f>
         <v>80</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
@@ -1466,10 +1470,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="32">
         <f>(IF(Januar!E26&gt;0,Januar!E26,0))+(IF(Februar!E26&gt;0,Februar!E26,0))+(IF(März!E26&gt;0,März!E26,0))+(IF(April!E26&gt;0,April!E26,0))+(IF(Mai!E26&gt;0,Mai!E26,0))+(IF(Juni!E26&gt;0,Juni!E26,0))+(IF(Juli!E26&gt;0,Juli!E26,0))+(IF(August!E26&gt;0,August!E26,0))+(IF(September!E26&gt;0,September!E26,0))+(IF(Oktober!E26&gt;0,Oktober!E26,0))+(IF(November!E26&gt;0,November!E26,0))+(IF(Dezember!E26&gt;0,Dezember!E26,0))</f>
         <v>96.000000000000028</v>
@@ -1504,17 +1508,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1882,27 +1886,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1936,10 +1940,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>0</v>
       </c>
@@ -1984,17 +1988,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2362,27 +2366,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2416,10 +2420,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>0</v>
       </c>
@@ -2464,17 +2468,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2842,27 +2846,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2896,10 +2900,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>0</v>
       </c>
@@ -2944,17 +2948,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3322,27 +3326,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3376,10 +3380,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>0</v>
       </c>
@@ -3615,17 +3619,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -4089,27 +4093,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>10.6875</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>256.5</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4143,10 +4147,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>12</v>
       </c>
@@ -4192,17 +4196,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -4634,27 +4638,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>6.9375</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>166.5</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4688,10 +4692,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>8</v>
       </c>
@@ -4741,17 +4745,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -5203,27 +5207,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>9.4166666666666679</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>226.00000000000003</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5257,10 +5261,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>8</v>
       </c>
@@ -5290,7 +5294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -5305,17 +5309,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -5578,13 +5582,13 @@
       <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="H12" s="49">
+      <c r="G12" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="H12" s="37">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="38">
         <f t="shared" si="1"/>
         <v>0.35416666666666663</v>
       </c>
@@ -5682,9 +5686,9 @@
       <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5707,9 +5711,9 @@
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5763,27 +5767,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>8.8958333333333339</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>213.5</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5817,10 +5821,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>8</v>
       </c>
@@ -5850,8 +5854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,17 +5869,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -5971,11 +5975,15 @@
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="15" t="s">
@@ -5992,32 +6000,44 @@
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="15" t="s">
@@ -6055,11 +6075,15 @@
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15" t="s">
@@ -6076,11 +6100,15 @@
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
@@ -6107,74 +6135,102 @@
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6191,11 +6247,15 @@
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6243,27 +6303,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="46"/>
+        <v>6.2083333333333339</v>
+      </c>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="48"/>
+        <v>149</v>
+      </c>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6286,7 +6346,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -6297,12 +6357,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6345,17 +6405,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -6723,27 +6783,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6777,10 +6837,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>0</v>
       </c>
@@ -6825,17 +6885,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -7203,27 +7263,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -7257,10 +7317,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>0</v>
       </c>
@@ -7305,17 +7365,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -7683,27 +7743,27 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51">
         <f>C21*24</f>
         <v>0</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -7737,10 +7797,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="36">
         <v>0</v>
       </c>

--- a/Dokumente/Zeiterfassung2015.xlsx
+++ b/Dokumente/Zeiterfassung2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="84">
   <si>
     <t>Januar 2015</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Überstunden Monat Mai :</t>
+  </si>
+  <si>
+    <t>Überstunden Monat Juni :</t>
   </si>
 </sst>
 </file>
@@ -968,7 +971,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1479,7 @@
       <c r="B36" s="43"/>
       <c r="C36" s="32">
         <f>(IF(Januar!E26&gt;0,Januar!E26,0))+(IF(Februar!E26&gt;0,Februar!E26,0))+(IF(März!E26&gt;0,März!E26,0))+(IF(April!E26&gt;0,April!E26,0))+(IF(Mai!E26&gt;0,Mai!E26,0))+(IF(Juni!E26&gt;0,Juni!E26,0))+(IF(Juli!E26&gt;0,Juli!E26,0))+(IF(August!E26&gt;0,August!E26,0))+(IF(September!E26&gt;0,September!E26,0))+(IF(Oktober!E26&gt;0,Oktober!E26,0))+(IF(November!E26&gt;0,November!E26,0))+(IF(Dezember!E26&gt;0,Dezember!E26,0))</f>
-        <v>96.000000000000028</v>
+        <v>145.00000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1497,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,11 +1554,15 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D19" si="0">C4-B4</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14" t="s">
@@ -1572,11 +1579,15 @@
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
@@ -1635,11 +1646,15 @@
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="15" t="s">
@@ -1656,11 +1671,15 @@
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="15" t="s">
@@ -1677,11 +1696,15 @@
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
@@ -1698,11 +1721,15 @@
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15" t="s">
@@ -1719,11 +1746,15 @@
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
@@ -1740,11 +1771,15 @@
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
@@ -1892,7 +1927,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
+        <v>3.5625000000000004</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="4"/>
@@ -1904,7 +1939,7 @@
       <c r="B22" s="50"/>
       <c r="C22" s="51">
         <f>C21*24</f>
-        <v>0</v>
+        <v>85.500000000000014</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="5"/>
@@ -1974,7 +2009,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,32 +2066,44 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D19" si="0">C4-B4</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
@@ -2083,11 +2130,15 @@
       <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,22 +2155,30 @@
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="15" t="s">
@@ -2136,74 +2195,102 @@
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.47916666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.75</v>
+      </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
@@ -2220,21 +2307,29 @@
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2251,22 +2346,30 @@
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
@@ -2283,42 +2386,58 @@
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2335,22 +2454,30 @@
       <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -2372,7 +2499,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
+        <v>10.166666666666668</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="4"/>
@@ -2384,7 +2511,7 @@
       <c r="B22" s="50"/>
       <c r="C22" s="51">
         <f>C21*24</f>
-        <v>0</v>
+        <v>244.00000000000003</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="5"/>
@@ -2416,7 +2543,7 @@
       <c r="D26" s="22"/>
       <c r="E26" s="23">
         <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <v>44.000000000000028</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2425,7 +2552,7 @@
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="36">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2581,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,95 +2638,131 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.75</v>
+      </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D19" si="0">C4-B4</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="15" t="s">
@@ -2616,11 +2779,15 @@
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="15" t="s">
@@ -2637,21 +2804,29 @@
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.75</v>
+      </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2668,11 +2843,15 @@
       <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,11 +2889,15 @@
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2731,11 +2914,15 @@
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2752,11 +2939,15 @@
       <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2794,11 +2985,15 @@
       <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2815,22 +3010,30 @@
       <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -2852,7 +3055,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
+        <v>8.5416666666666679</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="4"/>
@@ -2864,7 +3067,7 @@
       <c r="B22" s="50"/>
       <c r="C22" s="51">
         <f>C21*24</f>
-        <v>0</v>
+        <v>205.00000000000003</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="5"/>
@@ -2896,7 +3099,7 @@
       <c r="D26" s="22"/>
       <c r="E26" s="23">
         <f>IF(C22-E24&lt;0,0,C22-E24)</f>
-        <v>0</v>
+        <v>5.0000000000000284</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2905,7 +3108,7 @@
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="36">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2933,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,11 +3194,15 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D19" si="0">C4-B4</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14" t="s">
@@ -3012,11 +3219,15 @@
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
@@ -3180,11 +3391,15 @@
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="15" t="s">
@@ -3201,11 +3416,15 @@
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="15" t="s">
@@ -3222,11 +3441,15 @@
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
@@ -3332,7 +3555,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
+        <v>2.1875</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="4"/>
@@ -3344,7 +3567,7 @@
       <c r="B22" s="50"/>
       <c r="C22" s="51">
         <f>C21*24</f>
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="5"/>
@@ -3385,7 +3608,7 @@
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="36">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5854,8 +6077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6391,7 +6614,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6448,32 +6671,44 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D19" si="0">C4-B4</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.8125</v>
+      </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I18" si="1">H4-G4</f>
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="15" t="s">
@@ -6490,21 +6725,29 @@
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -6521,22 +6764,30 @@
       <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="15" t="s">
@@ -6563,11 +6814,15 @@
       <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6595,11 +6850,15 @@
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="15" t="s">
@@ -6616,11 +6875,15 @@
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
@@ -6742,11 +7005,15 @@
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="15" t="s">
@@ -6763,11 +7030,15 @@
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="16"/>
@@ -6789,7 +7060,7 @@
       <c r="B21" s="48"/>
       <c r="C21" s="49">
         <f>SUM(D4:D19)+SUM(I4:I18)</f>
-        <v>0</v>
+        <v>5.3750000000000009</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="4"/>
@@ -6801,7 +7072,7 @@
       <c r="B22" s="50"/>
       <c r="C22" s="51">
         <f>C21*24</f>
-        <v>0</v>
+        <v>129.00000000000003</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="5"/>
@@ -6826,7 +7097,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -6842,7 +7113,7 @@
       </c>
       <c r="B28" s="44"/>
       <c r="C28" s="36">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
